--- a/jupyter/notebooks/demos/ingest/input_files/excel_table1.xlsx
+++ b/jupyter/notebooks/demos/ingest/input_files/excel_table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\cl\fun_with\jupyter\notebooks\demos\ingest\input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA51503B-82EB-4A34-8714-5067AAF805E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5689CE09-69FB-44D1-8493-0ADE33CEB71E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="465" windowWidth="21600" windowHeight="11325" xr2:uid="{3B3C16AF-0AD4-4B8E-BCBE-8FA2188652A6}"/>
+    <workbookView xWindow="780" yWindow="930" windowWidth="21600" windowHeight="11325" xr2:uid="{3B3C16AF-0AD4-4B8E-BCBE-8FA2188652A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>mario@gmail.com</t>
   </si>
   <si>
-    <t>kjønn</t>
-  </si>
-  <si>
     <t>mann</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>espenm@gmail.com</t>
+  </si>
+  <si>
+    <t>sex</t>
   </si>
 </sst>
 </file>
@@ -170,7 +170,7 @@
     <tableColumn id="2" xr3:uid="{E52D418A-6002-4D7C-BF7A-B1ED6C4D397C}" name="firstName"/>
     <tableColumn id="3" xr3:uid="{DCB99A5C-F151-4B15-9365-8B1BDEA9DC53}" name="surName"/>
     <tableColumn id="4" xr3:uid="{399774DA-3374-43E5-855A-D3C5C51713E3}" name="age"/>
-    <tableColumn id="5" xr3:uid="{4ADB299A-9A67-4B59-AE0D-AD52F3B93073}" name="kjønn"/>
+    <tableColumn id="5" xr3:uid="{4ADB299A-9A67-4B59-AE0D-AD52F3B93073}" name="sex"/>
     <tableColumn id="6" xr3:uid="{996CA833-F49D-4E5A-B6EC-C9141DA38C30}" name="phone"/>
     <tableColumn id="7" xr3:uid="{378A75CD-6215-4301-8F35-6B9FB8AEDEB0}" name="mail" dataCellStyle="Hyperkobling"/>
   </tableColumns>
@@ -478,7 +478,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +501,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -524,7 +524,7 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>90807060</v>
@@ -547,7 +547,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>99887766</v>
@@ -570,7 +570,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>40506070</v>
@@ -584,22 +584,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
       </c>
       <c r="D5">
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>44556677</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
